--- a/문서/아이템 목록.xlsx
+++ b/문서/아이템 목록.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\typar\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\typar\Desktop\blender-storage-master\문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CD9BE15-B8E3-4478-8BDD-081099AAE096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E8F97-11C7-40B8-A0A9-F000114CC779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1250" yWindow="320" windowWidth="20700" windowHeight="19890" xr2:uid="{90E8086F-2B13-4029-8E7E-9F739A15DEF1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{90E8086F-2B13-4029-8E7E-9F739A15DEF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="장비" sheetId="3" r:id="rId2"/>
+    <sheet name="소모" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>돈까스 김밥</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +169,62 @@
   </si>
   <si>
     <t>아군 전체 화상 제거, 적에게 적용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불 머금 항아리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디버프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중독</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출혈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조잡한 폭탄</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,9 +271,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -551,137 +615,693 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E4E3B7-62A4-4077-9EE6-0ABECC8E5B48}">
-  <dimension ref="F4:N15"/>
+  <dimension ref="D4:P31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="4" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" t="s">
+        <v>17</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>31</v>
+      </c>
+      <c r="H15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="H27" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16FC727-DC4B-4038-8222-F85D6D11AB07}">
+  <dimension ref="B2:L19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="9" width="14.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>17</v>
+      </c>
+      <c r="L18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.3">
+      <c r="J19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{425EE64E-B959-4B97-990A-0C5FA82F3B34}">
+  <dimension ref="B2:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="9" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F6" t="s">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F7" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="2:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G24" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F8" t="s">
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
         <v>4</v>
       </c>
-      <c r="H8" t="s">
+      <c r="G25" t="s">
         <v>27</v>
       </c>
-      <c r="L8" t="s">
-        <v>9</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F9" t="s">
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
+      <c r="G26" t="s">
         <v>6</v>
       </c>
-      <c r="L9" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F10" t="s">
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G27" t="s">
         <v>22</v>
       </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F11" t="s">
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E28" t="s">
         <v>23</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G28" t="s">
         <v>20</v>
       </c>
-      <c r="L11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F12" t="s">
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E29" t="s">
         <v>24</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F13" t="s">
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E30" t="s">
         <v>28</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="6:14" x14ac:dyDescent="0.45">
-      <c r="F15" t="s">
+    <row r="32" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
         <v>31</v>
       </c>
-      <c r="H15" t="s">
+      <c r="G32" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="E2:I2"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="E4:I4"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="E7:I7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
